--- a/eval/figures/sgx/syscall-latency.xlsx
+++ b/eval/figures/sgx/syscall-latency.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24210" windowHeight="13710" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24210" windowHeight="13710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="open" sheetId="1" r:id="rId1"/>
@@ -1015,7 +1015,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General&quot;µS&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="General&quot;µs&quot;" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1126,6 +1126,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1611,16 +1612,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>53377</c:v>
+                    <c:v>2703</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>172161</c:v>
+                    <c:v>4022</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>334951</c:v>
+                    <c:v>34951</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>763227</c:v>
+                    <c:v>263227</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1632,16 +1633,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>53377</c:v>
+                    <c:v>2703</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>172161</c:v>
+                    <c:v>4022</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>334951</c:v>
+                    <c:v>34951</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>763227</c:v>
+                    <c:v>263227</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1684,10 +1685,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1334611</c:v>
+                  <c:v>820871</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1381789</c:v>
+                  <c:v>983310</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1993387</c:v>
@@ -2411,16 +2412,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.44159999999999999</c:v>
+                    <c:v>0.38500000000000001</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.9214</c:v>
+                    <c:v>1.3893</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>30.892099999999999</c:v>
+                    <c:v>11.3531</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>70.222999999999999</c:v>
+                    <c:v>36.726799999999997</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2439,16 +2440,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.44159999999999999</c:v>
+                    <c:v>0.38500000000000001</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.9214</c:v>
+                    <c:v>1.3893</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>30.892099999999999</c:v>
+                    <c:v>11.3531</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>70.222999999999999</c:v>
+                    <c:v>36.726799999999997</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2505,16 +2506,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>554</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2152</c:v>
+                  <c:v>1359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8545</c:v>
+                  <c:v>5287</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34123</c:v>
+                  <c:v>21046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2670,16 +2671,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.1931999999999992</c:v>
+                  <c:v>8.4463000000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6533999999999995</c:v>
+                  <c:v>8.5154999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5373999999999999</c:v>
+                  <c:v>8.4366000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1988000000000003</c:v>
+                  <c:v>8.5310000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2814,6 +2815,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="50000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4754,6 +4756,475 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
+      <cdr:x>0.30913</cdr:x>
+      <cdr:y>0.52551</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.43728</cdr:x>
+      <cdr:y>0.64293</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72332414-FAFE-4BD1-9B56-79329DDE4C57}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1690461" y="1887764"/>
+          <a:ext cx="700767" cy="421822"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>0.4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>µs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48083</cdr:x>
+      <cdr:y>0.4346</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.60898</cdr:x>
+      <cdr:y>0.55202</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF9DB33-42B7-4E0C-AECF-4B4C7E70F7C8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2629354" y="1561192"/>
+          <a:ext cx="700767" cy="421822"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>1.2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>µs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.67243</cdr:x>
+      <cdr:y>0.30391</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.80058</cdr:x>
+      <cdr:y>0.42134</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36441DF7-FAF8-4458-BB31-0A9FC484D862}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3677103" y="1091747"/>
+          <a:ext cx="700767" cy="421822"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>4.4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>µs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85532</cdr:x>
+      <cdr:y>0.16376</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98347</cdr:x>
+      <cdr:y>0.28119</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C854595F-E785-45E0-BFE6-B9BFA8F53CF6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4677228" y="588282"/>
+          <a:ext cx="700767" cy="421822"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>16.9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>µs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
       <cdr:x>0.13726</cdr:x>
       <cdr:y>0.09043</cdr:y>
     </cdr:from>
@@ -4873,7 +5344,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1S</a:t>
+            <a:t>1s</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800">
             <a:effectLst/>
@@ -4904,7 +5375,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>100mS</a:t>
+            <a:t>100ms</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800">
             <a:effectLst/>
@@ -4935,7 +5406,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>10mS</a:t>
+            <a:t>10ms</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800">
             <a:effectLst/>
@@ -4966,7 +5437,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1mS</a:t>
+            <a:t>1ms</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800">
             <a:effectLst/>
@@ -4997,7 +5468,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>100µS</a:t>
+            <a:t>100µs</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800">
             <a:effectLst/>
@@ -5028,7 +5499,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>10µS</a:t>
+            <a:t>10µs</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800" b="0"/>
         </a:p>
@@ -5059,16 +5530,16 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.16082</cdr:x>
-      <cdr:y>0.03536</cdr:y>
+      <cdr:x>0.15833</cdr:x>
+      <cdr:y>0.13554</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.26169</cdr:x>
-      <cdr:y>0.84996</cdr:y>
+      <cdr:x>0.2592</cdr:x>
+      <cdr:y>0.74022</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -5083,8 +5554,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="879040" y="124964"/>
-          <a:ext cx="551355" cy="2878613"/>
+          <a:off x="865433" y="478972"/>
+          <a:ext cx="551355" cy="2136792"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5096,7 +5567,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="r" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
-              <a:spcPct val="130000"/>
+              <a:spcPct val="140000"/>
             </a:lnSpc>
           </a:pPr>
           <a:r>
@@ -5106,7 +5577,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1S</a:t>
+            <a:t>10ms</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800">
             <a:effectLst/>
@@ -5115,7 +5586,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="r" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
-              <a:spcPct val="130000"/>
+              <a:spcPct val="140000"/>
             </a:lnSpc>
           </a:pPr>
           <a:r>
@@ -5125,7 +5596,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>100mS</a:t>
+            <a:t>1ms</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800">
             <a:effectLst/>
@@ -5134,7 +5605,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="r" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
-              <a:spcPct val="130000"/>
+              <a:spcPct val="140000"/>
             </a:lnSpc>
           </a:pPr>
           <a:r>
@@ -5144,7 +5615,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>10mS</a:t>
+            <a:t>100µs</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800">
             <a:effectLst/>
@@ -5153,7 +5624,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="r" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
-              <a:spcPct val="130000"/>
+              <a:spcPct val="140000"/>
             </a:lnSpc>
           </a:pPr>
           <a:r>
@@ -5163,45 +5634,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1mS</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="130000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>100µS</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="130000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>10µS</a:t>
+            <a:t>10µs</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800">
             <a:effectLst/>
@@ -5210,7 +5643,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="r">
             <a:lnSpc>
-              <a:spcPct val="130000"/>
+              <a:spcPct val="140000"/>
             </a:lnSpc>
           </a:pPr>
           <a:r>
@@ -5220,11 +5653,755 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1µS</a:t>
+            <a:t>1µs</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800">
             <a:effectLst/>
           </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.44312</cdr:x>
+      <cdr:y>0.30882</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.61041</cdr:x>
+      <cdr:y>0.56758</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB5ADC5-5E96-4465-BF87-240369488EF6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2422071" y="1091293"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83147</cdr:x>
+      <cdr:y>0.12399</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95967</cdr:x>
+      <cdr:y>0.24336</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811AFE4D-A084-4286-B2A1-455DDB8E2CA3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4544786" y="438149"/>
+          <a:ext cx="700767" cy="421822"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>21ms</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.66277</cdr:x>
+      <cdr:y>0.1838</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.79097</cdr:x>
+      <cdr:y>0.30317</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7C198F-9B7A-4FDD-9472-19FAEB35E62B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3622675" y="649514"/>
+          <a:ext cx="700767" cy="421822"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>5ms</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.491</cdr:x>
+      <cdr:y>0.25311</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.6192</cdr:x>
+      <cdr:y>0.37248</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D30B51E7-8AFB-4076-8E8B-2A71775BB08A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2683782" y="894443"/>
+          <a:ext cx="700767" cy="421822"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>2ms</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.31425</cdr:x>
+      <cdr:y>0.31087</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.44245</cdr:x>
+      <cdr:y>0.43024</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED23923E-238B-44C9-9D51-F1F3AA55C335}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1717675" y="1098550"/>
+          <a:ext cx="700767" cy="421822"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>383</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>µs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.38022</cdr:x>
+      <cdr:y>0.49185</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.50842</cdr:x>
+      <cdr:y>0.61122</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA94D18-0AF4-4C46-AA2C-45D5217D4994}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2078264" y="1738086"/>
+          <a:ext cx="700767" cy="421822"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8.4µs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.55572</cdr:x>
+      <cdr:y>0.488</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.68393</cdr:x>
+      <cdr:y>0.60737</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D2E26AE-6AC7-4FDD-85B5-F1641B350023}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3037568" y="1724479"/>
+          <a:ext cx="700767" cy="421822"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8.4µs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73247</cdr:x>
+      <cdr:y>0.48415</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.86068</cdr:x>
+      <cdr:y>0.60352</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02575E74-862F-414C-B0C1-F8548D5ECC20}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4003675" y="1710871"/>
+          <a:ext cx="700767" cy="421822"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8.4µs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -5532,7 +6709,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5574,13 +6751,13 @@
         <v>1.41E-2</v>
       </c>
       <c r="F2">
-        <v>554</v>
+        <v>383</v>
       </c>
       <c r="G2">
-        <v>0.44159999999999999</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="H2">
-        <v>9.1931999999999992</v>
+        <v>8.4463000000000008</v>
       </c>
       <c r="I2">
         <v>3.9600000000000003E-2</v>
@@ -5603,13 +6780,13 @@
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="F3">
-        <v>2152</v>
+        <v>1359</v>
       </c>
       <c r="G3">
-        <v>1.9214</v>
+        <v>1.3893</v>
       </c>
       <c r="H3">
-        <v>8.6533999999999995</v>
+        <v>8.5154999999999994</v>
       </c>
       <c r="I3">
         <v>5.7799999999999997E-2</v>
@@ -5632,13 +6809,13 @@
         <v>1.01E-2</v>
       </c>
       <c r="F4">
-        <v>8545</v>
+        <v>5287</v>
       </c>
       <c r="G4">
-        <v>30.892099999999999</v>
+        <v>11.3531</v>
       </c>
       <c r="H4">
-        <v>8.5373999999999999</v>
+        <v>8.4366000000000003</v>
       </c>
       <c r="I4">
         <v>4.8099999999999997E-2</v>
@@ -5661,13 +6838,13 @@
         <v>2.5600000000000001E-2</v>
       </c>
       <c r="F5">
-        <v>34123</v>
+        <v>21046</v>
       </c>
       <c r="G5">
-        <v>70.222999999999999</v>
+        <v>36.726799999999997</v>
       </c>
       <c r="H5">
-        <v>9.1988000000000003</v>
+        <v>8.5310000000000006</v>
       </c>
       <c r="I5">
         <v>6.1899999999999997E-2</v>
@@ -5683,7 +6860,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J5" sqref="J2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5833,8 +7010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5883,10 +7060,10 @@
         <v>7.4669999999999996</v>
       </c>
       <c r="H2">
-        <v>1334611</v>
+        <v>820871</v>
       </c>
       <c r="I2">
-        <v>53377</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -5912,10 +7089,10 @@
         <v>8.5229999999999997</v>
       </c>
       <c r="H3">
-        <v>1381789</v>
+        <v>983310</v>
       </c>
       <c r="I3">
-        <v>172161</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -5944,7 +7121,7 @@
         <v>1993387</v>
       </c>
       <c r="I4">
-        <v>334951</v>
+        <v>34951</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -5973,7 +7150,7 @@
         <v>2679482</v>
       </c>
       <c r="I5">
-        <v>763227</v>
+        <v>263227</v>
       </c>
     </row>
   </sheetData>
@@ -5985,8 +7162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
